--- a/NF_GARCH_Results_manual.xlsx
+++ b/NF_GARCH_Results_manual.xlsx
@@ -78,6 +78,18 @@
     <t xml:space="preserve">NVDA</t>
   </si>
   <si>
+    <t xml:space="preserve">MSFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMT</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMZN</t>
   </si>
   <si>
@@ -85,18 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">gjrGARCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WMT</t>
   </si>
   <si>
     <t xml:space="preserve">eGARCH</t>
@@ -727,19 +727,19 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>-21105.0868209245</v>
+        <v>-24598.7864036272</v>
       </c>
       <c r="E9" t="n">
-        <v>-21079.4261790611</v>
+        <v>-24573.1257617638</v>
       </c>
       <c r="F9" t="n">
-        <v>10556.5434104623</v>
+        <v>12303.3932018136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00223712473979836</v>
+        <v>0.000669463111347169</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0370296353860926</v>
+        <v>0.0176516199145223</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -753,25 +753,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="n">
-        <v>-34583.5588202508</v>
+        <v>-28421.9083009565</v>
       </c>
       <c r="E10" t="n">
-        <v>-34551.4830179215</v>
+        <v>-28396.2476590931</v>
       </c>
       <c r="F10" t="n">
-        <v>17296.7794101254</v>
+        <v>14214.9541504782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0000405404059650837</v>
+        <v>0.000298499179917316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00475203688812125</v>
+        <v>0.0116140366748503</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -785,25 +785,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>-34121.8216999079</v>
+        <v>-23097.0198244444</v>
       </c>
       <c r="E11" t="n">
-        <v>-34089.7458975786</v>
+        <v>-23071.359182581</v>
       </c>
       <c r="F11" t="n">
-        <v>17065.9108499539</v>
+        <v>11552.5099122222</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000482378123628303</v>
+        <v>0.00096304889650338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00504775165535498</v>
+        <v>0.020977423303931</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -817,25 +817,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>-34205.385821607</v>
+        <v>-26984.4218608787</v>
       </c>
       <c r="E12" t="n">
-        <v>-34173.3100192778</v>
+        <v>-26958.7612190153</v>
       </c>
       <c r="F12" t="n">
-        <v>17107.6929108035</v>
+        <v>13496.2109304394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000544382865170287</v>
+        <v>0.000386251344065862</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00554570817642875</v>
+        <v>0.0132649845346993</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -849,25 +849,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>-28673.9875229997</v>
+        <v>-21105.0868209245</v>
       </c>
       <c r="E13" t="n">
-        <v>-28641.9117206705</v>
+        <v>-21079.4261790611</v>
       </c>
       <c r="F13" t="n">
-        <v>14341.9937614999</v>
+        <v>10556.5434104623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000211183730855794</v>
+        <v>0.00223712473979836</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0113212392015816</v>
+        <v>0.0370296353860926</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -881,25 +881,25 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>-29517.0242242862</v>
+        <v>-34583.5588202508</v>
       </c>
       <c r="E14" t="n">
-        <v>-29484.9484219569</v>
+        <v>-34551.4830179215</v>
       </c>
       <c r="F14" t="n">
-        <v>14763.5121121431</v>
+        <v>17296.7794101254</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000136632550740795</v>
+        <v>0.0000405404059650837</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00893100337466072</v>
+        <v>0.00475203688812125</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -913,25 +913,25 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>-29783.026599145</v>
+        <v>-34121.8216999079</v>
       </c>
       <c r="E15" t="n">
-        <v>-29750.9507968157</v>
+        <v>-34089.7458975786</v>
       </c>
       <c r="F15" t="n">
-        <v>14896.5132995725</v>
+        <v>17065.9108499539</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000128775000652817</v>
+        <v>0.0000482378123628303</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00867397535845282</v>
+        <v>0.00504775165535498</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -945,25 +945,25 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>-19754.1644756206</v>
+        <v>-34205.385821607</v>
       </c>
       <c r="E16" t="n">
-        <v>-19722.0886732913</v>
+        <v>-34173.3100192778</v>
       </c>
       <c r="F16" t="n">
-        <v>9882.08223781028</v>
+        <v>17107.6929108035</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00115699057408182</v>
+        <v>0.0000544382865170287</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0246506642663787</v>
+        <v>0.00554570817642875</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -977,25 +977,25 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>-22326.447013871</v>
+        <v>-28673.9875229997</v>
       </c>
       <c r="E17" t="n">
-        <v>-22294.3712115417</v>
+        <v>-28641.9117206705</v>
       </c>
       <c r="F17" t="n">
-        <v>11168.2235069355</v>
+        <v>14341.9937614999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0007580918958447</v>
+        <v>0.000211183730855794</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0194882597600285</v>
+        <v>0.0113212392015816</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1006,28 +1006,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>-34582.5142602016</v>
+        <v>-29517.0242242862</v>
       </c>
       <c r="E18" t="n">
-        <v>-34544.0232974065</v>
+        <v>-29484.9484219569</v>
       </c>
       <c r="F18" t="n">
-        <v>17297.2571301008</v>
+        <v>14763.5121121431</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0000403382932955455</v>
+        <v>0.000136632550740795</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00473526098570776</v>
+        <v>0.00893100337466072</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -1038,28 +1038,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>-34124.7483549712</v>
+        <v>-29783.026599145</v>
       </c>
       <c r="E19" t="n">
-        <v>-34086.2573921761</v>
+        <v>-29750.9507968157</v>
       </c>
       <c r="F19" t="n">
-        <v>17068.3741774856</v>
+        <v>14896.5132995725</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0000584192608760841</v>
+        <v>0.000128775000652817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00564649865160007</v>
+        <v>0.00867397535845282</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -1070,28 +1070,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>-34215.5904892624</v>
+        <v>-19754.1644756206</v>
       </c>
       <c r="E20" t="n">
-        <v>-34177.0995264673</v>
+        <v>-19722.0886732913</v>
       </c>
       <c r="F20" t="n">
-        <v>17113.7952446312</v>
+        <v>9882.08223781028</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0000517671578258566</v>
+        <v>0.00115699057408182</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00533711160761658</v>
+        <v>0.0246506642663787</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1102,28 +1102,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>-28687.4162221169</v>
+        <v>-25201.146477467</v>
       </c>
       <c r="E21" t="n">
-        <v>-28648.9252593218</v>
+        <v>-25169.0706751377</v>
       </c>
       <c r="F21" t="n">
-        <v>14349.7081110585</v>
+        <v>12605.5732387335</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000179201877596506</v>
+        <v>0.000372293575848569</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0102355011059456</v>
+        <v>0.0135825443270651</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1134,28 +1134,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" t="n">
-        <v>-29523.0161174753</v>
+        <v>-29005.9003381371</v>
       </c>
       <c r="E22" t="n">
-        <v>-29484.5251546802</v>
+        <v>-28973.8245358078</v>
       </c>
       <c r="F22" t="n">
-        <v>14767.5080587376</v>
+        <v>14507.9501690685</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000132759432801336</v>
+        <v>0.000174346165067421</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00883347737394354</v>
+        <v>0.00911943292456286</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -1166,28 +1166,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
       <c r="D23" t="n">
-        <v>-29796.2238095339</v>
+        <v>-23534.8297437557</v>
       </c>
       <c r="E23" t="n">
-        <v>-29757.7328467388</v>
+        <v>-23502.7539414265</v>
       </c>
       <c r="F23" t="n">
-        <v>14904.1119047669</v>
+        <v>11772.4148718779</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000154992064997957</v>
+        <v>0.000538741807133082</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00958894353642466</v>
+        <v>0.0165437207782858</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1198,28 +1198,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>-19800.4852954501</v>
+        <v>-27912.182943764</v>
       </c>
       <c r="E24" t="n">
-        <v>-19761.994332655</v>
+        <v>-27880.1071414348</v>
       </c>
       <c r="F24" t="n">
-        <v>9906.24264772506</v>
+        <v>13961.091471882</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00128087563130496</v>
+        <v>0.000217084226209439</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0265747940547643</v>
+        <v>0.0102058172504363</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1230,28 +1230,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>-25239.7979352301</v>
+        <v>-22326.447013871</v>
       </c>
       <c r="E25" t="n">
-        <v>-25201.306972435</v>
+        <v>-22294.3712115417</v>
       </c>
       <c r="F25" t="n">
-        <v>12625.898967615</v>
+        <v>11168.2235069355</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000440928950267843</v>
+        <v>0.0007580918958447</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0154569606436059</v>
+        <v>0.0194882597600285</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -1262,28 +1262,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>-29039.6857781542</v>
+        <v>-34582.5142602016</v>
       </c>
       <c r="E26" t="n">
-        <v>-29001.1948153591</v>
+        <v>-34544.0232974065</v>
       </c>
       <c r="F26" t="n">
-        <v>14525.8428890771</v>
+        <v>17297.2571301008</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000175221229598091</v>
+        <v>0.0000403382932955455</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00948770603886514</v>
+        <v>0.00473526098570776</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
@@ -1294,28 +1294,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>-23587.2287800738</v>
+        <v>-34124.7483549712</v>
       </c>
       <c r="E27" t="n">
-        <v>-23548.7378172786</v>
+        <v>-34086.2573921761</v>
       </c>
       <c r="F27" t="n">
-        <v>11799.6143900369</v>
+        <v>17068.3741774856</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000519847077074018</v>
+        <v>0.0000584192608760841</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0167746633387121</v>
+        <v>0.00564649865160007</v>
       </c>
       <c r="I27" t="s">
         <v>13</v>
@@ -1326,28 +1326,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>-27933.1306478703</v>
+        <v>-34215.5904892624</v>
       </c>
       <c r="E28" t="n">
-        <v>-27894.6396850752</v>
+        <v>-34177.0995264673</v>
       </c>
       <c r="F28" t="n">
-        <v>13972.5653239352</v>
+        <v>17113.7952446312</v>
       </c>
       <c r="G28" t="n">
-        <v>0.000216317121540551</v>
+        <v>0.0000517671578258566</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0104040374364191</v>
+        <v>0.00533711160761658</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -1358,28 +1358,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>-22394.8972265633</v>
+        <v>-28687.4162221169</v>
       </c>
       <c r="E29" t="n">
-        <v>-22356.4062637682</v>
+        <v>-28648.9252593218</v>
       </c>
       <c r="F29" t="n">
-        <v>11203.4486132816</v>
+        <v>14349.7081110585</v>
       </c>
       <c r="G29" t="n">
-        <v>0.000810779681348036</v>
+        <v>0.000179201877596506</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0204231996315582</v>
+        <v>0.0102355011059456</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -1390,28 +1390,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>88742.8364006451</v>
+        <v>-29523.0161174753</v>
       </c>
       <c r="E30" t="n">
-        <v>88781.3273634402</v>
+        <v>-29484.5251546802</v>
       </c>
       <c r="F30" t="n">
-        <v>-44365.4182003226</v>
+        <v>14767.5080587376</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000190344876151247</v>
+        <v>0.000132759432801336</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0125983170564609</v>
+        <v>0.00883347737394354</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -1422,28 +1422,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>87445.6626180611</v>
+        <v>-29796.2238095339</v>
       </c>
       <c r="E31" t="n">
-        <v>87484.1535808562</v>
+        <v>-29757.7328467388</v>
       </c>
       <c r="F31" t="n">
-        <v>-43716.8313090306</v>
+        <v>14904.1119047669</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0000979225582632087</v>
+        <v>0.000154992064997957</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00734898544081113</v>
+        <v>0.00958894353642466</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -1454,28 +1454,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>31132.9470380068</v>
+        <v>-19800.4852954501</v>
       </c>
       <c r="E32" t="n">
-        <v>31171.4380008019</v>
+        <v>-19761.994332655</v>
       </c>
       <c r="F32" t="n">
-        <v>-15560.4735190034</v>
+        <v>9906.24264772506</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00128970269149023</v>
+        <v>0.00128087563130496</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0268595450267767</v>
+        <v>0.0265747940547643</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -1486,28 +1486,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
-        <v>74676.5367480048</v>
+        <v>-25239.7979352301</v>
       </c>
       <c r="E33" t="n">
-        <v>74715.0277107999</v>
+        <v>-25201.306972435</v>
       </c>
       <c r="F33" t="n">
-        <v>-37332.2683740024</v>
+        <v>12625.898967615</v>
       </c>
       <c r="G33" t="n">
-        <v>0.000179902286831956</v>
+        <v>0.000440928950267843</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00992676412154318</v>
+        <v>0.0154569606436059</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -1518,28 +1518,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
       <c r="D34" t="n">
-        <v>38474.773616067</v>
+        <v>-29039.6857781542</v>
       </c>
       <c r="E34" t="n">
-        <v>38513.2645788621</v>
+        <v>-29001.1948153591</v>
       </c>
       <c r="F34" t="n">
-        <v>-19231.3868080335</v>
+        <v>14525.8428890771</v>
       </c>
       <c r="G34" t="n">
-        <v>0.000483602313331164</v>
+        <v>0.000175221229598091</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0160032736609052</v>
+        <v>0.00948770603886514</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -1550,28 +1550,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>-22462.7044750592</v>
+        <v>-23587.2287800738</v>
       </c>
       <c r="E35" t="n">
-        <v>-22424.2135122641</v>
+        <v>-23548.7378172786</v>
       </c>
       <c r="F35" t="n">
-        <v>11237.3522375296</v>
+        <v>11799.6143900369</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00144851788198335</v>
+        <v>0.000519847077074018</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0285585330919201</v>
+        <v>0.0167746633387121</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1582,28 +1582,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
-        <v>-34586.3649111898</v>
+        <v>-27933.1306478703</v>
       </c>
       <c r="E36" t="n">
-        <v>-34547.8739483947</v>
+        <v>-27894.6396850752</v>
       </c>
       <c r="F36" t="n">
-        <v>17299.1824555949</v>
+        <v>13972.5653239352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0000384619729873311</v>
+        <v>0.000216317121540551</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00459336396184028</v>
+        <v>0.0104040374364191</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -1614,28 +1614,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>-34143.5793159374</v>
+        <v>-22394.8972265633</v>
       </c>
       <c r="E37" t="n">
-        <v>-34105.0883531423</v>
+        <v>-22356.4062637682</v>
       </c>
       <c r="F37" t="n">
-        <v>17077.7896579687</v>
+        <v>11203.4486132816</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0000516526998194061</v>
+        <v>0.000810779681348036</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00525573593339261</v>
+        <v>0.0204231996315582</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -1646,28 +1646,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>-34229.3263959653</v>
+        <v>-29261.4628467497</v>
       </c>
       <c r="E38" t="n">
-        <v>-34190.8354331702</v>
+        <v>-29222.9718839546</v>
       </c>
       <c r="F38" t="n">
-        <v>17120.6631979826</v>
+        <v>14636.7314233749</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0000481347786982688</v>
+        <v>0.000140607899973741</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00510173237501597</v>
+        <v>0.00913035552825881</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -1678,28 +1678,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>-28681.2154638213</v>
+        <v>-19657.5108026582</v>
       </c>
       <c r="E39" t="n">
-        <v>-28642.7245010262</v>
+        <v>-19619.0198398631</v>
       </c>
       <c r="F39" t="n">
-        <v>14346.6077319106</v>
+        <v>9834.75540132912</v>
       </c>
       <c r="G39" t="n">
-        <v>0.000203537598438503</v>
+        <v>0.035070378184583</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0109502523832762</v>
+        <v>0.140371993353298</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -1710,28 +1710,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>-29514.4191158516</v>
+        <v>95360.0167797499</v>
       </c>
       <c r="E40" t="n">
-        <v>-29475.9281530565</v>
+        <v>95398.507742545</v>
       </c>
       <c r="F40" t="n">
-        <v>14763.2095579258</v>
+        <v>-47674.0083898749</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000130774600803464</v>
+        <v>0.769326237041689</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00877936012129599</v>
+        <v>0.87693193107137</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -1742,28 +1742,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>-29791.0983563139</v>
+        <v>84990.6533279885</v>
       </c>
       <c r="E41" t="n">
-        <v>-29752.6073935188</v>
+        <v>85029.1442907836</v>
       </c>
       <c r="F41" t="n">
-        <v>14901.549178157</v>
+        <v>-42489.3266639943</v>
       </c>
       <c r="G41" t="n">
-        <v>0.000232921726934678</v>
+        <v>0.41294530215544</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0117918016561839</v>
+        <v>0.642276112123762</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -1774,28 +1774,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>-19848.9476801049</v>
+        <v>-22035.7651873228</v>
       </c>
       <c r="E42" t="n">
-        <v>-19810.4567173098</v>
+        <v>-21997.2742245277</v>
       </c>
       <c r="F42" t="n">
-        <v>9930.47384005244</v>
+        <v>11023.8825936614</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00122796508157438</v>
+        <v>0.000878943940105694</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0258700638975599</v>
+        <v>0.0214211374444758</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -1809,25 +1809,25 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>-25280.8103945167</v>
+        <v>-34586.3649111898</v>
       </c>
       <c r="E43" t="n">
-        <v>-25242.3194317216</v>
+        <v>-34547.8739483947</v>
       </c>
       <c r="F43" t="n">
-        <v>12646.4051972584</v>
+        <v>17299.1824555949</v>
       </c>
       <c r="G43" t="n">
-        <v>0.000412330388856732</v>
+        <v>0.0000384619729873311</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0148358537107003</v>
+        <v>0.00459336396184028</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -1841,25 +1841,25 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>-29068.0080326487</v>
+        <v>-34143.5793159374</v>
       </c>
       <c r="E44" t="n">
-        <v>-29029.5170698536</v>
+        <v>-34105.0883531423</v>
       </c>
       <c r="F44" t="n">
-        <v>14540.0040163244</v>
+        <v>17077.7896579687</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000165091986551674</v>
+        <v>0.0000516526998194061</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00910757682026758</v>
+        <v>0.00525573593339261</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -1873,25 +1873,25 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>-23648.2049726735</v>
+        <v>-34229.3263959653</v>
       </c>
       <c r="E45" t="n">
-        <v>-23609.7140098784</v>
+        <v>-34190.8354331702</v>
       </c>
       <c r="F45" t="n">
-        <v>11830.1024863367</v>
+        <v>17120.6631979826</v>
       </c>
       <c r="G45" t="n">
-        <v>0.000488623340680921</v>
+        <v>0.0000481347786982688</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0160259060227025</v>
+        <v>0.00510173237501597</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -1905,25 +1905,25 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D46" t="n">
-        <v>-27981.9430561994</v>
+        <v>-28681.2154638213</v>
       </c>
       <c r="E46" t="n">
-        <v>-27943.4520934042</v>
+        <v>-28642.7245010262</v>
       </c>
       <c r="F46" t="n">
-        <v>13996.9715280997</v>
+        <v>14346.6077319106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.000199619018043449</v>
+        <v>0.000203537598438503</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00986158279158963</v>
+        <v>0.0109502523832762</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -1937,30 +1937,254 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-29514.4191158516</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-29475.9281530565</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14763.2095579258</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.000130774600803464</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.00877936012129599</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-29791.0983563139</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-29752.6073935188</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14901.549178157</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.000232921726934678</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0117918016561839</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-19848.9476801049</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-19810.4567173098</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9930.47384005244</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.00122796508157438</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0258700638975599</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-25280.8103945167</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-25242.3194317216</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12646.4051972584</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.000412330388856732</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0148358537107003</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
+        <v>-29068.0080326487</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-29029.5170698536</v>
+      </c>
+      <c r="F51" t="n">
+        <v>14540.0040163244</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.000165091986551674</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.00910757682026758</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-23648.2049726735</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-23609.7140098784</v>
+      </c>
+      <c r="F52" t="n">
+        <v>11830.1024863367</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.000488623340680921</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0160259060227025</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-27981.9430561994</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-27943.4520934042</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13996.9715280997</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.000199619018043449</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.00986158279158963</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
         <v>-22477.2604400268</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E54" t="n">
         <v>-22438.7694772317</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F54" t="n">
         <v>11244.6302200134</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G54" t="n">
         <v>0.000688011868142063</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H54" t="n">
         <v>0.018198435949132</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1997,13 +2221,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45887.4640124134</v>
+        <v>45890.1548563188</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/NF_GARCH_Results_manual.xlsx
+++ b/NF_GARCH_Results_manual.xlsx
@@ -2221,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45890.1548563188</v>
+        <v>45891.5139136077</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
